--- a/课程内容.xlsx
+++ b/课程内容.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>机器学习部分</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>PCA</t>
+  </si>
+  <si>
+    <t>2023.2.5</t>
+  </si>
+  <si>
+    <t>numpy版本利用的是直接求协方差矩阵，跟sklearn使用svd做pca有区别</t>
   </si>
   <si>
     <t>K-means</t>
@@ -1024,13 +1030,13 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="50.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="63.1818181818182" customWidth="1"/>
     <col min="4" max="4" width="18.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1134,22 +1140,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/课程内容.xlsx
+++ b/课程内容.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>机器学习部分</t>
   </si>
@@ -28,6 +28,9 @@
     <t>是否用numpy实现</t>
   </si>
   <si>
+    <t>完成度</t>
+  </si>
+  <si>
     <t>knn</t>
   </si>
   <si>
@@ -37,6 +40,9 @@
     <t>是</t>
   </si>
   <si>
+    <t>√</t>
+  </si>
+  <si>
     <t>决策树</t>
   </si>
   <si>
@@ -55,6 +61,15 @@
     <t>Xgboost</t>
   </si>
   <si>
+    <t>2023.2.6</t>
+  </si>
+  <si>
+    <t>粗略完成，但是没写教案，后续会跟进</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
     <t>svm</t>
   </si>
   <si>
@@ -79,7 +94,7 @@
     <t>2023.2.5</t>
   </si>
   <si>
-    <t>numpy版本利用的是直接求协方差矩阵，跟sklearn使用svd做pca有区别</t>
+    <t>numpy版本利用的是直接求协方差矩阵，跟sklearn使用svd做pca有区别，差别主要是有一个负号的差距，但是是在一个空间的</t>
   </si>
   <si>
     <t>K-means</t>
@@ -88,7 +103,7 @@
     <t>特征选择和处理</t>
   </si>
   <si>
-    <t>标准化，方差过滤，相关性过滤，F检验</t>
+    <t>标准化，方差过滤（已完成），相关性过滤（开发中, 卡方检验（√），F检验（×）），互信息法（×）</t>
   </si>
 </sst>
 </file>
@@ -1027,20 +1042,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="63.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="111.636363636364" customWidth="1"/>
     <col min="4" max="4" width="18.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1053,118 +1068,160 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/课程内容.xlsx
+++ b/课程内容.xlsx
@@ -103,7 +103,7 @@
     <t>特征选择和处理</t>
   </si>
   <si>
-    <t>标准化，方差过滤（已完成），相关性过滤（开发中, 卡方检验（√），F检验（×）），互信息法（×）</t>
+    <t>标准化（√），方差过滤（√），相关性过滤（卡方检验（√），F检验（×）），互信息法（×）</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>

--- a/课程内容.xlsx
+++ b/课程内容.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>机器学习部分</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>K-means</t>
+  </si>
+  <si>
+    <t>2023.4.3</t>
+  </si>
+  <si>
+    <t>numpy版本的初始化没有使用kmeans++算法，所以跟sklearn的结果可能有差异，主要是利用简单的代码介绍算法的运行逻辑</t>
   </si>
   <si>
     <t>特征选择和处理</t>
@@ -1045,7 +1051,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1206,16 +1212,25 @@
       <c r="A10" t="s">
         <v>27</v>
       </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>

--- a/课程内容.xlsx
+++ b/课程内容.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>机器学习部分</t>
   </si>
@@ -110,6 +110,21 @@
   </si>
   <si>
     <t>标准化（√），方差过滤（√），相关性过滤（卡方检验（√），F检验（×）），互信息法（×）</t>
+  </si>
+  <si>
+    <t>深度学习部分</t>
+  </si>
+  <si>
+    <t>是否用pytorch实现</t>
+  </si>
+  <si>
+    <t>1-创建tensor</t>
+  </si>
+  <si>
+    <t>2023.4.18</t>
+  </si>
+  <si>
+    <t>暂时还没有</t>
   </si>
 </sst>
 </file>
@@ -1048,15 +1063,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="10.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="111.636363636364" customWidth="1"/>
     <col min="4" max="4" width="18.2727272727273" customWidth="1"/>
   </cols>
@@ -1239,6 +1255,28 @@
         <v>17</v>
       </c>
     </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/课程内容.xlsx
+++ b/课程内容.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>机器学习部分</t>
   </si>
@@ -115,7 +115,7 @@
     <t>深度学习部分</t>
   </si>
   <si>
-    <t>是否用pytorch实现</t>
+    <t>是否用pytorch实现（后续都会更新）</t>
   </si>
   <si>
     <t>1-创建tensor</t>
@@ -124,7 +124,34 @@
     <t>2023.4.18</t>
   </si>
   <si>
-    <t>暂时还没有</t>
+    <t>无</t>
+  </si>
+  <si>
+    <t>2-类型转换</t>
+  </si>
+  <si>
+    <t>2023.4.19</t>
+  </si>
+  <si>
+    <t>3-常用计算</t>
+  </si>
+  <si>
+    <t>4-常用维度操作</t>
+  </si>
+  <si>
+    <t>5-前馈神经网络（手动实现版本）</t>
+  </si>
+  <si>
+    <t>6-反馈神经网络（手动实现版本）</t>
+  </si>
+  <si>
+    <t>7-线性层</t>
+  </si>
+  <si>
+    <t>8-激活函数</t>
+  </si>
+  <si>
+    <t>9-mnist识别案例（线性层）</t>
   </si>
 </sst>
 </file>
@@ -1063,15 +1090,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.7272727272727" customWidth="1"/>
+    <col min="1" max="1" width="31.5454545454545" customWidth="1"/>
     <col min="2" max="2" width="10.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="111.636363636364" customWidth="1"/>
     <col min="4" max="4" width="18.2727272727273" customWidth="1"/>
@@ -1277,6 +1304,73 @@
         <v>36</v>
       </c>
     </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
